--- a/tools/混淆矩阵.xlsx
+++ b/tools/混淆矩阵.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunlingshan/Desktop/paper/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44A3CC-F53F-B54C-9032-14E81F1C8913}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85FFE2B-88C0-8040-858F-08FE91EC61E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4960" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{2CA16AA1-F165-DC46-92D3-6BAC611E694C}"/>
   </bookViews>
@@ -91,15 +91,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
@@ -107,7 +99,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
@@ -145,23 +145,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -481,400 +478,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9456C-DAC3-CB46-9EBF-F26F81435F0C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="K11" sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="11" width="5.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="60" customHeight="1">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6">
+    <row r="2" spans="1:12" ht="30" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
         <v>55</v>
       </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>21</v>
-      </c>
-      <c r="I2" s="6">
-        <v>14</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
         <v>68</v>
       </c>
-      <c r="D3" s="6">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="60" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="5">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
         <v>61</v>
       </c>
-      <c r="E4" s="6">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="60" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="5">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>17</v>
+      </c>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>52</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>81</v>
+      </c>
+      <c r="G6" s="5">
+        <v>9</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="60" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>81</v>
-      </c>
-      <c r="G6" s="6">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="60" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="G7" s="5">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>32</v>
+      </c>
+      <c r="J7" s="5">
+        <v>13</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>56</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>9</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>82</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>19</v>
+      </c>
+      <c r="D11" s="5">
         <v>11</v>
       </c>
-      <c r="G7" s="6">
-        <v>35</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>34</v>
-      </c>
-      <c r="J7" s="6">
-        <v>13</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="60" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>64</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="60" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>56</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="60" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>82</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="60" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>60</v>
       </c>
+      <c r="L11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:K11">
+  <conditionalFormatting sqref="A1:K11 L2:L11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
